--- a/2025-10-21/21_ai.full_fixtures.xlsx
+++ b/2025-10-21/21_ai.full_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,23 +488,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Universitario de Deportes ✓ - Ayacucho FC: 2:1</t>
+          <t>Al-Hilal SFC ✓ - Al-Sadd SC: 3:1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.37</v>
+        <v>3.49</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Universitario de Deportes</t>
+          <t>Al-Hilal SFC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -513,10 +513,10 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -527,28 +527,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Al-Hilal SFC  - Al-Sadd SC: 19:15</t>
+          <t>Universitario de Deportes ✓ - Ayacucho FC: 2:1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.62</v>
+        <v>1.4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Hilal SFC</t>
+          <t>Universitario de Deportes</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>71%</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H3" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -562,15 +566,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arsenal FC  - Atlético de Madrid: 20:00</t>
+          <t>FC Zbrojovka Brno  - Slezsky FC Opava: 0:0</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.92</v>
+        <v>1.59</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>FC Zbrojovka Brno</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -578,15 +582,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -597,15 +601,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chengdu Rongcheng - Johor Darul Ta'zim ✓: 0:2</t>
+          <t>Arsenal FC ✓ - Atlético de Madrid: 4:0</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.4</v>
+        <v>1.98</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Johor Darul Ta'zim</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -613,7 +617,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -622,10 +626,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -636,11 +640,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Union Saint-Gilloise - Inter Milan : 20:00</t>
+          <t>Union Saint-Gilloise - Inter Milan ✓: 0:4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -652,12 +656,16 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>67%</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H6" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -671,31 +679,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bayer 04 Leverkusen - Paris Saint-Germain : 20:00</t>
+          <t>Chengdu Rongcheng - Johor Darul Ta'zim ✓: 0:2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.63</v>
+        <v>1.4</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain</t>
+          <t>Johor Darul Ta'zim</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>66%</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H7" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -706,28 +718,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Club Always Ready  - Blooming Santa Cruz: 20:00</t>
+          <t>Lernayin Artsakh Goris X - FC Bentonit Ijevan: 0:6</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.73</v>
+        <v>3.15</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Club Always Ready</t>
+          <t>Lernayin Artsakh Goris</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>58%</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t>68%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H8" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -741,28 +757,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>JS Kabylie  - USM Khenchela: 19:00</t>
+          <t>Bayer 04 Leverkusen - Paris Saint-Germain ✓: 2:7</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.35</v>
+        <v>3.04</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>JS Kabylie</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>55%</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H9" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -776,28 +796,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MC Algiers  - Paradou AC: 23:00</t>
+          <t>FC Barcelona ✓ - Olympiacos Piraeus: 6:1</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.53</v>
+        <v>2.44</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MC Algiers</t>
+          <t>FC Barcelona</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>53%</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H10" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -811,15 +835,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ipswich Town  - Charlton Athletic: 19:45</t>
+          <t>FC Flora Tallinn ✓ - JK Trans Narva: 4:0</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.23</v>
+        <v>2.37</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Ipswich Town</t>
+          <t>FC Flora Tallinn</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -827,12 +851,16 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>51%</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H11" t="n">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -846,15 +874,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Villarreal CF - Manchester City : 20:00</t>
+          <t>CSKA Moscow ✓ - Akron Togliatti: 3:2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.73</v>
+        <v>2.86</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>CSKA Moscow</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -862,12 +890,16 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>59%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H12" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -881,31 +913,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Independiente Medellín  - Independiente Santa Fe: 1:1</t>
+          <t>Club Always Ready ✓ - Blooming Santa Cruz: 4:2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.3</v>
+        <v>2.73</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Independiente Medellín</t>
+          <t>Club Always Ready</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>47%</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -916,35 +952,31 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Arnett Gardens FC X - Tivoli Gardens FC: 1:2</t>
+          <t>MC Algiers  - Paradou AC: 23:00</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.22</v>
+        <v>1.53</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Arnett Gardens FC</t>
+          <t>MC Algiers</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>46%</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -955,15 +987,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TOP Oss - Ajax Amsterdam U21 : 19:00</t>
+          <t>Torpedo Kutaisi ✓ - Iberia 1999 Tbilisi: 3:1</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.28</v>
+        <v>1.69</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Ajax Amsterdam U21</t>
+          <t>Torpedo Kutaisi</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -971,12 +1003,16 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>41%</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>52%</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H15" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -990,31 +1026,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Veraguas United FC  - SD Atlético Nacional: 1:1</t>
+          <t>Shabab Al-Ahli Club ✓ - Nasaf Qarshi: 4:1</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.41</v>
+        <v>1.98</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Veraguas United FC</t>
+          <t>Shabab Al-Ahli Club</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>35%</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>51%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1025,15 +1065,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Salcedo FC  - Atlético San Cristóbal: 22:30</t>
+          <t>Villarreal CF - Manchester City ✓: 0:2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.93</v>
+        <v>2.79</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Salcedo FC</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1041,15 +1081,19 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>34%</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H17" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1060,32 +1104,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Melbourne City FC - Buriram United X: 2:1</t>
+          <t>FC Dila Gori ✓ - FC Gagra: 5:0</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.26</v>
+        <v>2.38</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Buriram United</t>
+          <t>FC Dila Gori</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -1099,31 +1143,31 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FC Copenhagen - Borussia Dortmund : 20:00</t>
+          <t>Independiente Medellín  - Independiente Santa Fe: 1:1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.05</v>
+        <v>1.29</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Independiente Medellín</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>31%</t>
+          <t>47%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1134,31 +1178,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sekhukhune United FC - Mamelodi Sundowns FC : 18:30</t>
+          <t>Arnett Gardens FC X - Tivoli Gardens FC: 1:2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.88</v>
+        <v>2.28</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mamelodi Sundowns FC</t>
+          <t>Arnett Gardens FC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>31%</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H20" t="n">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1169,35 +1217,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ulsan HD FC - Sanfrecce Hiroshima X: 1:0</t>
+          <t>Club Africain ✓ - US Monastir: 2:1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.7</v>
+        <v>0.74</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Club Africain</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1208,28 +1256,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Al-Hussein SC (Irbid) - Mohun Bagan Super Giant : 19:15</t>
+          <t>Dinamo Makhachkala - Spartak Moscow ✓: 1:3</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.27</v>
+        <v>2.3</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mohun Bagan Super Giant</t>
+          <t>Spartak Moscow</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>27%</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H22" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -1243,15 +1295,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Millwall FC  - Stoke City: 19:45</t>
+          <t>Kairat Almaty - Pafos FC : 0:0</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.05</v>
+        <v>1.47</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Millwall FC</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1259,15 +1311,15 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>26%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1278,31 +1330,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Portsmouth FC - Coventry City : 19:45</t>
+          <t>Pärnu JK Vaprus X - FC Kuressaare: 0:1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.74</v>
+        <v>2.24</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Coventry City</t>
+          <t>Pärnu JK Vaprus</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>26%</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H24" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1313,15 +1369,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Shanghai Port X - Machida Zelvia: 0:2</t>
+          <t>Partick Thistle FC ✓ - Ayr United FC: 2:1</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.71</v>
+        <v>1.89</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Shanghai Port</t>
+          <t>Partick Thistle FC</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1329,19 +1385,19 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>39%</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1352,15 +1408,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Al-Kharaitiyat SC  - Lusail SC: 18:00</t>
+          <t>Portsmouth FC - Coventry City ✓: 1:2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Al-Kharaitiyat SC</t>
+          <t>Coventry City</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1368,12 +1424,16 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>37%</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H26" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -1387,31 +1447,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Club Boca Juniors de Cali  - Barranquilla FC: 22:00</t>
+          <t>Ipswich Town X - Charlton Athletic: 0:3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.96</v>
+        <v>2.3</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Club Boca Juniors de Cali</t>
+          <t>Ipswich Town</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t>37%</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H27" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1422,15 +1486,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Newcastle United  - SL Benfica: 20:00</t>
+          <t>PSV Eindhoven ✓ - SSC Napoli: 6:2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1438,12 +1502,16 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>35%</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H28" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
@@ -1457,31 +1525,31 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Guadalupe FC  - Sporting FC: 2:2</t>
+          <t>Veraguas United FC  - SD Atlético Nacional: 1:1</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.95</v>
+        <v>2.57</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Guadalupe FC</t>
+          <t>Veraguas United FC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>35%</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1560,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CD Atlético Huila  - Real Cundinamarca: 21:45</t>
+          <t>Salcedo FC  - Atlético San Cristóbal: 22:30</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.09</v>
+        <v>2.93</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CD Atlético Huila</t>
+          <t>Salcedo FC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>34%</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -1527,28 +1595,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PSV Eindhoven - SSC Napoli : 20:00</t>
+          <t>Sekhukhune United FC - Mamelodi Sundowns FC : 18:30</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SSC Napoli</t>
+          <t>Mamelodi Sundowns FC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>31%</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -1562,15 +1630,15 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MVV Maastricht  - Vitesse Arnhem: 19:00</t>
+          <t>Shanghai Port X - Machida Zelvia: 0:2</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Shanghai Port</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1578,15 +1646,19 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>18%</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
+          <t>29%</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H32" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="I32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1597,28 +1669,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Muaither SC - Al-Markhiya SC : 18:00</t>
+          <t>FC Copenhagen - Borussia Dortmund ✓: 2:4</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.13</v>
+        <v>2.13</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Al-Markhiya SC</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>17%</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>28%</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H33" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -1632,15 +1708,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FC Den Bosch  - Helmond Sport: 19:00</t>
+          <t>Millwall FC ✓ - Stoke City: 2:0</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.61</v>
+        <v>1.06</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>FC Den Bosch</t>
+          <t>Millwall FC</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1648,15 +1724,19 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>17%</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
+          <t>26%</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H34" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="I34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1667,15 +1747,15 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>VVV-Venlo  - FC Utrecht U21: 19:00</t>
+          <t>Pyramids FC ✓ - Pharco FC: 2:0</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VVV-Venlo</t>
+          <t>Pyramids FC</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1683,15 +1763,19 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>16%</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
+          <t>26%</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H35" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="I35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1702,15 +1786,15 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Santos FC X - Esporte Clube Vitória: 0:1</t>
+          <t>MVV Maastricht ✓ - Vitesse Arnhem: 3:2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Santos FC</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1718,19 +1802,19 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>15%</t>
+          <t>26%</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1741,32 +1825,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CD El Nacional X - Deportivo Cuenca: 0:2</t>
+          <t>Newcastle United ✓ - SL Benfica: 3:0</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1.43</v>
+        <v>2.3</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CD El Nacional</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>14%</t>
+          <t>23%</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I37" t="b">
         <v>1</v>
@@ -1780,15 +1864,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Preston North End - Birmingham City : 19:45</t>
+          <t>FC Den Bosch ✓ - Helmond Sport: 1:0</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1.26</v>
+        <v>1.52</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Birmingham City</t>
+          <t>FC Den Bosch</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1796,15 +1880,19 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>14%</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
+          <t>23%</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H38" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="I38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1815,31 +1903,35 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Blackburn Rovers - Sheffield United : 19:45</t>
+          <t>JS Kabylie ✓ - USM Khenchela: 1:0</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.33</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Sheffield United</t>
+          <t>JS Kabylie</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>12%</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
+          <t>21%</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H39" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="I39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1850,28 +1942,28 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CA Unión (Santa Fe)  - Defensa y Justicia: 23:15</t>
+          <t>Club Boca Juniors de Cali  - Barranquilla FC: 22:00</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1.3</v>
+        <v>0.96</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>CA Unión (Santa Fe)</t>
+          <t>Club Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
@@ -1885,15 +1977,15 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Hull City  - Leicester City: 19:45</t>
+          <t>TOP Oss - Ajax Amsterdam U21 : 1:1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Hull City</t>
+          <t>Ajax Amsterdam U21</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1901,15 +1993,15 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="I41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1920,15 +2012,15 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sport Boys Association - FBC Melgar X: 1:0</t>
+          <t>Al-Zulfi SFC X - Al-Bukiryah FC: 1:2</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>FBC Melgar</t>
+          <t>Al-Zulfi SFC</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1936,7 +2028,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1945,10 +2037,10 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1959,15 +2051,15 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Al-Mesaimeer SC - Al-Khor SC : 18:00</t>
+          <t>Ulsan HD FC - Sanfrecce Hiroshima X: 1:0</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1.78</v>
+        <v>1.58</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Al-Khor SC</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1975,15 +2067,19 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H43" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1994,15 +2090,15 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CD La Equidad Seguros SA - Deportes Tolima ✓: 0:2</t>
+          <t>AC Sparta Prague B X - FK Pribram: 0:1</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>AC Sparta Prague B</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -2010,16 +2106,16 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="b">
         <v>1</v>
@@ -2033,32 +2129,28 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán X - CA San Lorenzo de Almagro: 1:2</t>
+          <t>Guadalupe FC  - Sporting FC: 2:2</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1.37</v>
+        <v>2.05</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>Guadalupe FC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>8%</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I45" t="b">
         <v>0</v>
@@ -2072,15 +2164,15 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FC Rustavi - FC Samtredia X: 3:0</t>
+          <t>CD Atlético Huila  - Real Cundinamarca: 21:45</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>FC Samtredia</t>
+          <t>CD Atlético Huila</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -2088,16 +2180,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>8%</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="I46" t="b">
         <v>0</v>
@@ -2111,28 +2199,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Al-Waab SC  - Al-Bidda SC: 18:00</t>
+          <t>Blackburn Rovers - Sheffield United ✓: 1:3</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1.2</v>
+        <v>0.78</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Al-Waab SC</t>
+          <t>Sheffield United</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>6%</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H47" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
@@ -2146,15 +2238,15 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Bristol City - Southampton FC : 20:00</t>
+          <t>Melbourne City FC - Buriram United X: 2:1</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.56</v>
+        <v>1.32</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Southampton FC</t>
+          <t>Buriram United</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2162,12 +2254,16 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>6%</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H48" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I48" t="b">
         <v>0</v>
@@ -2181,15 +2277,15 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Airdrieonians FC - Dunfermline Athletic FC : 19:45</t>
+          <t>FC Spaeri Tbilisi X - FC Gonio: 1:2</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.15</v>
+        <v>1.94</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Dunfermline Athletic FC</t>
+          <t>FC Spaeri Tbilisi</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -2197,12 +2293,16 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H49" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="I49" t="b">
         <v>0</v>
@@ -2216,31 +2316,776 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Derby County  - Norwich City: 19:45</t>
+          <t>VVV-Venlo X - FC Utrecht U21: 0:1</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>VVV-Venlo</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Tue Oct 21</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Santos FC X - Esporte Clube Vitória: 0:1</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Santos FC</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Tue Oct 21</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>FC Shirak Gyumri II - MIKA Ashtarak ✓: 2:3</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>MIKA Ashtarak</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Tue Oct 21</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CD El Nacional X - Deportivo Cuenca: 0:2</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>CD El Nacional</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Tue Oct 21</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Preston North End - Birmingham City ✓: 0:1</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Birmingham City</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Tue Oct 21</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>FC Locomotive Tbilisi X - FC Meshakhte Tkibuli: 0:1</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>FC Locomotive Tbilisi</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Tue Oct 21</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>FC Pyunik Yerevan II - FC Syunik ✓: 1:2</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>FC Syunik</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Tue Oct 21</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>FC Rustavi ✓ - FC Samtredia: 3:0</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>FC Rustavi</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Tue Oct 21</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Al-Batin FC X - Jeddah SC: 1:4</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Al-Batin FC</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Tue Oct 21</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Sioni Bolnisi ✓ - Merani Martvili: 1:0</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Sioni Bolnisi</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Tue Oct 21</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Hull City ✓ - Leicester City: 2:1</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Hull City</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Tue Oct 21</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>CA Unión (Santa Fe) ✓ - Defensa y Justicia: 3:0</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>CA Unión (Santa Fe)</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Tue Oct 21</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Sport Boys Association ✓ - FBC Melgar: 1:0</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Sport Boys Association</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Tue Oct 21</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>CD La Equidad Seguros SA - Deportes Tolima ✓: 0:2</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Tue Oct 21</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Airdrieonians FC - Dunfermline Athletic FC ✓: 0:4</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Dunfermline Athletic FC</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Tue Oct 21</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán - CA San Lorenzo de Almagro ✓: 1:2</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>CA San Lorenzo de Almagro</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Tue Oct 21</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Al-Wehda FC - Abha Club ✓: 2:3</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Abha Club</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6%</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Tue Oct 21</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Dinamo Tbilisi II ✓ - Iberia 1999 Tbilisi II: 2:0</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Dinamo Tbilisi II</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6%</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Tue Oct 21</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Bristol City - Southampton FC X: 3:1</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Southampton FC</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Tue Oct 21</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Derby County ✓ - Norwich City: 1:0</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>Derby County</t>
         </is>
       </c>
-      <c r="E50" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="n">
-        <v>64</v>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="E69" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
